--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 8,16</t>
+          <t>-22,02; 8,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 14,14</t>
+          <t>-17,22; 14,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -3,39</t>
+          <t>-32,98; -3,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 9,81</t>
+          <t>-22,03; 7,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 7,2</t>
+          <t>-26,72; 6,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,57; -12,5</t>
+          <t>-39,29; -11,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 4,27</t>
+          <t>-17,89; 4,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 5,99</t>
+          <t>-18,48; 4,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,83; -11,05</t>
+          <t>-31,87; -11,25</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 24,22</t>
+          <t>-44,12; 25,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 41,37</t>
+          <t>-34,5; 42,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,58; -10,02</t>
+          <t>-66,68; -9,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 29,47</t>
+          <t>-45,8; 22,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 20,57</t>
+          <t>-56,67; 20,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,23; -32,11</t>
+          <t>-81,89; -28,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 12,22</t>
+          <t>-37,03; 12,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 16,6</t>
+          <t>-38,4; 11,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,74; -28,1</t>
+          <t>-68,1; -30,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,76</t>
+          <t>4,85; 16,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,61</t>
+          <t>2,34; 13,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -5,96</t>
+          <t>-16,16; -6,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 17,14</t>
+          <t>5,85; 17,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 13,83</t>
+          <t>1,68; 13,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -0,36</t>
+          <t>-13,15; -0,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,13</t>
+          <t>6,31; 14,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,96</t>
+          <t>4,03; 12,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -5,28</t>
+          <t>-12,87; -5,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 65,83</t>
+          <t>16,46; 68,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 56,56</t>
+          <t>8,36; 56,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; -24,7</t>
+          <t>-53,49; -25,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 73,9</t>
+          <t>20,1; 76,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 59,79</t>
+          <t>6,05; 56,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -0,48</t>
+          <t>-43,63; -0,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,04; 60,88</t>
+          <t>21,96; 59,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 49,03</t>
+          <t>14,51; 49,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; -21,56</t>
+          <t>-44,48; -19,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 26,05</t>
+          <t>7,12; 25,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 26,27</t>
+          <t>8,39; 25,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 1,58</t>
+          <t>-14,6; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 23,69</t>
+          <t>3,41; 22,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 21,34</t>
+          <t>2,23; 21,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 1,43</t>
+          <t>-15,17; 1,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,05; 21,57</t>
+          <t>8,55; 22,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 20,95</t>
+          <t>7,95; 20,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -1,14</t>
+          <t>-12,27; -0,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,39; 125,38</t>
+          <t>21,15; 123,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,03; 134,52</t>
+          <t>27,43; 130,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 8,17</t>
+          <t>-49,68; 11,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 105,72</t>
+          <t>10,41; 95,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,76; 98,09</t>
+          <t>6,4; 93,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,1; 7,97</t>
+          <t>-47,65; 6,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,22; 93,32</t>
+          <t>27,78; 98,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,25; 91,0</t>
+          <t>27,28; 92,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -3,25</t>
+          <t>-43,05; -3,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 14,67</t>
+          <t>5,68; 14,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,95</t>
+          <t>5,04; 14,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -6,73</t>
+          <t>-14,41; -6,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,74</t>
+          <t>4,64; 14,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 11,44</t>
+          <t>2,21; 11,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -4,18</t>
+          <t>-13,47; -3,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,48</t>
+          <t>6,82; 13,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,4</t>
+          <t>4,91; 11,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -6,99</t>
+          <t>-12,86; -6,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,65; 56,41</t>
+          <t>18,59; 58,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,6; 55,09</t>
+          <t>17,03; 55,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,74; -25,59</t>
+          <t>-48,06; -25,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,82; 57,57</t>
+          <t>15,5; 57,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 43,91</t>
+          <t>6,78; 46,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -15,17</t>
+          <t>-44,35; -15,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,26; 50,99</t>
+          <t>23,03; 50,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 43,56</t>
+          <t>16,8; 43,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,92; -26,47</t>
+          <t>-43,97; -26,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-10,79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-27,25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-6,15</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,51</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-18,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,79</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-25,62</t>
+          <t>-18,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,9</t>
+          <t>-22,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 8,82</t>
+          <t>-20,22; 7,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 14,66</t>
+          <t>-25,38; 6,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -3,91</t>
+          <t>-40,32; -12,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 7,69</t>
+          <t>-22,03; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 6,62</t>
+          <t>-16,5; 14,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,29; -11,17</t>
+          <t>-33,45; -4,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 4,3</t>
+          <t>-17,45; 4,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 4,15</t>
+          <t>-17,55; 4,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -11,25</t>
+          <t>-32,17; -12,23</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-16,05%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-26,29%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-66,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-14,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-3,59%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-44,55%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,05%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-26,29%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-62,41%</t>
+          <t>-43,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,68%</t>
+          <t>-53,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 25,3</t>
+          <t>-43,22; 23,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 42,78</t>
+          <t>-54,19; 18,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -9,13</t>
+          <t>-82,98; -36,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 22,77</t>
+          <t>-43,81; 25,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 20,87</t>
+          <t>-34,1; 41,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,89; -28,51</t>
+          <t>-67,1; -10,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 12,69</t>
+          <t>-37,42; 11,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 11,2</t>
+          <t>-38,35; 11,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,1; -30,5</t>
+          <t>-69,63; -31,5</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>10,3</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>8,14</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>-7,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,44</t>
+          <t>5,4; 17,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,38</t>
+          <t>2,22; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -6,28</t>
+          <t>-11,16; 10,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,65</t>
+          <t>4,63; 16,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 13,19</t>
+          <t>2,29; 13,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -0,5</t>
+          <t>-15,86; -6,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 14,64</t>
+          <t>7,27; 15,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,17</t>
+          <t>3,74; 12,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -5,02</t>
+          <t>-11,82; 0,72</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>44,14%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-14,43%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>38,37%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>30,31%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-40,35%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>44,14%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30,06%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>-41,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>-28,86%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 68,71</t>
+          <t>18,09; 73,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 56,92</t>
+          <t>7,9; 57,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,49; -25,62</t>
+          <t>-40,17; 44,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 76,12</t>
+          <t>13,31; 66,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 56,89</t>
+          <t>7,59; 55,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -0,89</t>
+          <t>-53,72; -24,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,96; 59,36</t>
+          <t>24,86; 61,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 49,63</t>
+          <t>13,33; 49,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,48; -19,03</t>
+          <t>-42,22; 3,56</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>13,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>16,91</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>17,51</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,25</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,62</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-6,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 25,87</t>
+          <t>3,89; 23,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 25,96</t>
+          <t>1,86; 20,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 1,98</t>
+          <t>-14,53; 1,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 22,16</t>
+          <t>8,21; 26,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 21,25</t>
+          <t>9,02; 26,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 1,38</t>
+          <t>-15,03; 1,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 22,47</t>
+          <t>8,65; 21,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 20,98</t>
+          <t>7,54; 21,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -0,63</t>
+          <t>-12,02; -0,27</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>49,25%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-25,43%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>67,32%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>69,7%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-25,52%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>49,25%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>43,18%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,77%</t>
+          <t>-25,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>-25,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 123,93</t>
+          <t>12,82; 107,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 130,09</t>
+          <t>4,9; 91,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 11,14</t>
+          <t>-48,44; 5,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 95,46</t>
+          <t>25,49; 125,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 93,94</t>
+          <t>30,81; 134,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,65; 6,46</t>
+          <t>-50,96; 10,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,78; 98,42</t>
+          <t>29,06; 98,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,28; 92,2</t>
+          <t>26,59; 95,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -3,21</t>
+          <t>-41,72; -1,24</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>10,33</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>9,44</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,93</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-8,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 14,89</t>
+          <t>4,77; 15,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,04</t>
+          <t>2,59; 11,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -6,65</t>
+          <t>-12,26; 3,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,61</t>
+          <t>5,53; 14,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,92</t>
+          <t>4,85; 14,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -3,91</t>
+          <t>-15,08; -7,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,33</t>
+          <t>6,89; 13,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,6</t>
+          <t>5,0; 11,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -6,96</t>
+          <t>-12,34; -2,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-24,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>36,97%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>33,78%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-38,22%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>35,34%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>24,53%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
+          <t>-38,75%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>-32,08%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>29,33%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-35,31%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,59; 58,37</t>
+          <t>15,67; 59,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 55,0</t>
+          <t>7,85; 46,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -25,67</t>
+          <t>-41,54; 14,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,5; 57,24</t>
+          <t>17,91; 57,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 46,11</t>
+          <t>15,63; 55,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -15,03</t>
+          <t>-49,57; -26,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,03; 50,38</t>
+          <t>22,88; 49,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,8; 43,95</t>
+          <t>16,61; 43,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -26,04</t>
+          <t>-41,93; -8,34</t>
         </is>
       </c>
     </row>
